--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N2">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O2">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P2">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q2">
-        <v>1400.707509869196</v>
+        <v>1090.738985307286</v>
       </c>
       <c r="R2">
-        <v>12606.36758882276</v>
+        <v>9816.650867765573</v>
       </c>
       <c r="S2">
-        <v>0.0782332389339282</v>
+        <v>0.04756972994419491</v>
       </c>
       <c r="T2">
-        <v>0.0782332389339282</v>
+        <v>0.04756972994419491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.155044</v>
       </c>
       <c r="O3">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P3">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q3">
-        <v>798.7142966556173</v>
+        <v>784.2261314435382</v>
       </c>
       <c r="R3">
-        <v>7188.428669900555</v>
+        <v>7058.035182991845</v>
       </c>
       <c r="S3">
-        <v>0.04461031726462189</v>
+        <v>0.03420197296554871</v>
       </c>
       <c r="T3">
-        <v>0.0446103172646219</v>
+        <v>0.0342019729655487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N4">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O4">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P4">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q4">
-        <v>267.4475407639837</v>
+        <v>570.3139238812328</v>
       </c>
       <c r="R4">
-        <v>2407.027866875853</v>
+        <v>5132.825314931095</v>
       </c>
       <c r="S4">
-        <v>0.01493765629973252</v>
+        <v>0.02487275114201711</v>
       </c>
       <c r="T4">
-        <v>0.01493765629973252</v>
+        <v>0.02487275114201711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N5">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O5">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P5">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q5">
-        <v>27.99008918431267</v>
+        <v>19.22386927734956</v>
       </c>
       <c r="R5">
-        <v>251.910802658814</v>
+        <v>173.014823496146</v>
       </c>
       <c r="S5">
-        <v>0.001563320907119847</v>
+        <v>0.0008383988124788588</v>
       </c>
       <c r="T5">
-        <v>0.001563320907119847</v>
+        <v>0.0008383988124788587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N6">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O6">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P6">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q6">
-        <v>279.2087059034043</v>
+        <v>351.4820359134647</v>
       </c>
       <c r="R6">
-        <v>2512.878353130639</v>
+        <v>3163.338323221182</v>
       </c>
       <c r="S6">
-        <v>0.01559454864592948</v>
+        <v>0.01532897031633004</v>
       </c>
       <c r="T6">
-        <v>0.01559454864592948</v>
+        <v>0.01532897031633004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N7">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O7">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P7">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q7">
-        <v>536.0601377081036</v>
+        <v>425.144966101993</v>
       </c>
       <c r="R7">
-        <v>4824.541239372932</v>
+        <v>3826.304694917937</v>
       </c>
       <c r="S7">
-        <v>0.02994038408503204</v>
+        <v>0.01854158648130482</v>
       </c>
       <c r="T7">
-        <v>0.02994038408503204</v>
+        <v>0.01854158648130482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.155044</v>
       </c>
       <c r="O8">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P8">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q8">
         <v>305.6733064097191</v>
@@ -948,10 +948,10 @@
         <v>2751.059757687472</v>
       </c>
       <c r="S8">
-        <v>0.01707266695407993</v>
+        <v>0.01333114231079126</v>
       </c>
       <c r="T8">
-        <v>0.01707266695407993</v>
+        <v>0.01333114231079126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N9">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O9">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P9">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q9">
-        <v>102.3539636372929</v>
+        <v>222.2952485444289</v>
       </c>
       <c r="R9">
-        <v>921.1856727356361</v>
+        <v>2000.65723689986</v>
       </c>
       <c r="S9">
-        <v>0.00571674103026599</v>
+        <v>0.009694826244939881</v>
       </c>
       <c r="T9">
-        <v>0.005716741030265989</v>
+        <v>0.009694826244939881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N10">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O10">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P10">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q10">
-        <v>10.71199444344089</v>
+        <v>7.493022035849779</v>
       </c>
       <c r="R10">
-        <v>96.40794999096801</v>
+        <v>67.437198322648</v>
       </c>
       <c r="S10">
-        <v>0.0005982933730617907</v>
+        <v>0.0003267885713380438</v>
       </c>
       <c r="T10">
-        <v>0.0005982933730617906</v>
+        <v>0.0003267885713380438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N11">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O11">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P11">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q11">
-        <v>106.8550402430964</v>
+        <v>136.9996124249573</v>
       </c>
       <c r="R11">
-        <v>961.6953621878679</v>
+        <v>1232.996511824616</v>
       </c>
       <c r="S11">
-        <v>0.005968138127147856</v>
+        <v>0.005974880015569072</v>
       </c>
       <c r="T11">
-        <v>0.005968138127147855</v>
+        <v>0.005974880015569073</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N12">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O12">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P12">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q12">
-        <v>2806.245529198893</v>
+        <v>3898.293427945826</v>
       </c>
       <c r="R12">
-        <v>25256.20976279004</v>
+        <v>35084.64085151243</v>
       </c>
       <c r="S12">
-        <v>0.1567362746656414</v>
+        <v>0.1700138787634604</v>
       </c>
       <c r="T12">
-        <v>0.1567362746656414</v>
+        <v>0.1700138787634605</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.155044</v>
       </c>
       <c r="O13">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P13">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q13">
-        <v>1600.183056280162</v>
+        <v>2802.818653601583</v>
       </c>
       <c r="R13">
-        <v>14401.64750652146</v>
+        <v>25225.36788241425</v>
       </c>
       <c r="S13">
-        <v>0.08937447861022745</v>
+        <v>0.1222376097585046</v>
       </c>
       <c r="T13">
-        <v>0.08937447861022747</v>
+        <v>0.1222376097585046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N14">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O14">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P14">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q14">
-        <v>535.8174067577144</v>
+        <v>2038.297934959999</v>
       </c>
       <c r="R14">
-        <v>4822.356660819429</v>
+        <v>18344.68141463999</v>
       </c>
       <c r="S14">
-        <v>0.02992682691602662</v>
+        <v>0.08889503686763441</v>
       </c>
       <c r="T14">
-        <v>0.02992682691602662</v>
+        <v>0.08889503686763441</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N15">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O15">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P15">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q15">
-        <v>56.07670558051823</v>
+        <v>68.7059729899258</v>
       </c>
       <c r="R15">
-        <v>504.6903502246641</v>
+        <v>618.3537569093321</v>
       </c>
       <c r="S15">
-        <v>0.003132033115691592</v>
+        <v>0.002996431432918077</v>
       </c>
       <c r="T15">
-        <v>0.003132033115691592</v>
+        <v>0.002996431432918077</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N16">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O16">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P16">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q16">
-        <v>559.3802968387071</v>
+        <v>1256.194313304449</v>
       </c>
       <c r="R16">
-        <v>5034.422671548364</v>
+        <v>11305.74881974005</v>
       </c>
       <c r="S16">
-        <v>0.03124287698121998</v>
+        <v>0.05478563161881592</v>
       </c>
       <c r="T16">
-        <v>0.03124287698121998</v>
+        <v>0.05478563161881592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N17">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O17">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P17">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q17">
-        <v>311.3225638121514</v>
+        <v>287.781287091028</v>
       </c>
       <c r="R17">
-        <v>2801.903074309363</v>
+        <v>2590.031583819252</v>
       </c>
       <c r="S17">
-        <v>0.01738819300148794</v>
+        <v>0.01255082865315971</v>
       </c>
       <c r="T17">
-        <v>0.01738819300148794</v>
+        <v>0.01255082865315971</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>49.155044</v>
       </c>
       <c r="O18">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P18">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q18">
-        <v>177.5229880872609</v>
+        <v>206.910735306356</v>
       </c>
       <c r="R18">
-        <v>1597.706892785348</v>
+        <v>1862.196617757204</v>
       </c>
       <c r="S18">
-        <v>0.009915130921652953</v>
+        <v>0.009023870911064248</v>
       </c>
       <c r="T18">
-        <v>0.009915130921652955</v>
+        <v>0.009023870911064248</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N19">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O19">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P19">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q19">
-        <v>59.44314104782211</v>
+        <v>150.471998591155</v>
       </c>
       <c r="R19">
-        <v>534.988269430399</v>
+        <v>1354.247987320395</v>
       </c>
       <c r="S19">
-        <v>0.003320057487956026</v>
+        <v>0.006562442924993623</v>
       </c>
       <c r="T19">
-        <v>0.003320057487956026</v>
+        <v>0.006562442924993623</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N20">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O20">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P20">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q20">
-        <v>6.221103452929111</v>
+        <v>5.072038240154001</v>
       </c>
       <c r="R20">
-        <v>55.98993107636201</v>
+        <v>45.648344161386</v>
       </c>
       <c r="S20">
-        <v>0.0003474651698777134</v>
+        <v>0.0002212036908929066</v>
       </c>
       <c r="T20">
-        <v>0.0003474651698777134</v>
+        <v>0.0002212036908929066</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N21">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O21">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P21">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q21">
-        <v>62.05718863364854</v>
+        <v>92.73525018091802</v>
       </c>
       <c r="R21">
-        <v>558.5146977028369</v>
+        <v>834.6172516282621</v>
       </c>
       <c r="S21">
-        <v>0.003466058996426353</v>
+        <v>0.004044405551499411</v>
       </c>
       <c r="T21">
-        <v>0.003466058996426353</v>
+        <v>0.004044405551499412</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N22">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O22">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P22">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q22">
-        <v>3986.039943353913</v>
+        <v>3179.425528164981</v>
       </c>
       <c r="R22">
-        <v>35874.35949018522</v>
+        <v>28614.82975348483</v>
       </c>
       <c r="S22">
-        <v>0.2226309297918374</v>
+        <v>0.138662334242943</v>
       </c>
       <c r="T22">
-        <v>0.2226309297918374</v>
+        <v>0.1386623342429431</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>49.155044</v>
       </c>
       <c r="O23">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P23">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q23">
-        <v>2272.927836372082</v>
+        <v>2285.962650783228</v>
       </c>
       <c r="R23">
-        <v>20456.35052734874</v>
+        <v>20573.66385704905</v>
       </c>
       <c r="S23">
-        <v>0.1269490634194423</v>
+        <v>0.09969628611893688</v>
       </c>
       <c r="T23">
-        <v>0.1269490634194423</v>
+        <v>0.09969628611893688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N24">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O24">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P24">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q24">
-        <v>761.0843611001744</v>
+        <v>1662.423983264054</v>
       </c>
       <c r="R24">
-        <v>6849.759249901569</v>
+        <v>14961.81584937649</v>
       </c>
       <c r="S24">
-        <v>0.04250858530514079</v>
+        <v>0.07250227689839558</v>
       </c>
       <c r="T24">
-        <v>0.04250858530514079</v>
+        <v>0.07250227689839558</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N25">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O25">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P25">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q25">
-        <v>79.65232764199824</v>
+        <v>56.03619340083689</v>
       </c>
       <c r="R25">
-        <v>716.8709487779842</v>
+        <v>504.325740607532</v>
       </c>
       <c r="S25">
-        <v>0.004448794295849748</v>
+        <v>0.002443872111555195</v>
       </c>
       <c r="T25">
-        <v>0.004448794295849748</v>
+        <v>0.002443872111555195</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N26">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O26">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P26">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q26">
-        <v>794.5534998716871</v>
+        <v>1024.544801944383</v>
       </c>
       <c r="R26">
-        <v>7150.981498845184</v>
+        <v>9220.903217499445</v>
       </c>
       <c r="S26">
-        <v>0.04437792570060213</v>
+        <v>0.04468284365071314</v>
       </c>
       <c r="T26">
-        <v>0.04437792570060213</v>
+        <v>0.04468284365071314</v>
       </c>
     </row>
   </sheetData>
